--- a/ig/ch-atc/StructureDefinition-CH-ATC.ITI-81.Response.xlsx
+++ b/ig/ch-atc/StructureDefinition-CH-ATC.ITI-81.Response.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0-ballot</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -619,7 +619,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>88</v>
@@ -18818,7 +18818,7 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>88</v>
@@ -22330,7 +22330,7 @@
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>88</v>
